--- a/laba4.xlsx
+++ b/laba4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>string</t>
   </si>
@@ -204,6 +204,30 @@
   </si>
   <si>
     <t>Данной подстроки в вашей строке нет , Заканчивается ли строка данной подстрокой: false</t>
+  </si>
+  <si>
+    <t>fdgdsfgfdegdf</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>FDGDSFGFDEGDF fdgdsfgfdegdf</t>
+  </si>
+  <si>
+    <t>jfhgdjdhgfgfhdj</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>JFHGDJDHGFGFHDJ jfhgdjdhgfgfhdj</t>
+  </si>
+  <si>
+    <t>вапвыап</t>
+  </si>
+  <si>
+    <t>ваыпваы</t>
   </si>
 </sst>
 </file>
@@ -277,7 +301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -637,6 +661,50 @@
         <v>63</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/laba4.xlsx
+++ b/laba4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>string</t>
   </si>
@@ -228,6 +228,48 @@
   </si>
   <si>
     <t>ваыпваы</t>
+  </si>
+  <si>
+    <t>привет</t>
+  </si>
+  <si>
+    <t>ри</t>
+  </si>
+  <si>
+    <t>ПРИВЕТ привет</t>
+  </si>
+  <si>
+    <t>как дела</t>
+  </si>
+  <si>
+    <t xml:space="preserve">к </t>
+  </si>
+  <si>
+    <t>КАК ДЕЛА как дела</t>
+  </si>
+  <si>
+    <t>fgjgngng</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>Подстрока начинается с индекса: 3, Заканчивается ли строка данной подстрокой: true</t>
+  </si>
+  <si>
+    <t>huy</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Подстрока начинается с индекса: 2, Заканчивается ли строка данной подстрокой: true</t>
+  </si>
+  <si>
+    <t>пр ивет</t>
+  </si>
+  <si>
+    <t>ПР ИВЕТ пр ивет</t>
   </si>
 </sst>
 </file>
@@ -301,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -705,6 +747,74 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" t="s" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" t="s" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
